--- a/SDK/通用/Common接口测试报告.xlsx
+++ b/SDK/通用/Common接口测试报告.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9930" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="测试内容及结果" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="149">
   <si>
     <t>测试地点：</t>
   </si>
@@ -601,6 +601,34 @@
   </si>
   <si>
     <t>无返回值，生成一个Excel文件</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cit转Txt操作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Export</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出cit数据到txt文件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"idfFile":null,"dbFile":null,"channelName":null,"channelNames":["M","AB_Vt_L_11"],"sampleCount":100000,"isChinese":false,"exportTxtPath":"H:\\工作文件汇总\\铁科院\\程序\\车载加速度\\数据文件\\test.txt","startMile":1.0,"endMile":100.0,"channelId":0,"path":"H:\\工作文件汇总\\铁科院\\程序\\车载加速度\\数据文件\\CitData_160424063432_CNGX.cit"}</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"flag":1,"msg":"Success","data":"H:\\工作文件汇总\\铁科院\\程序\\车载加速度\\数据文件\\test.txt"}</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"flag":1,"msg":"Success","data":"H:\\工作文件汇总\\铁科院\\程序\\车载加速度\\数据文件\\test.txt"}</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -972,7 +1000,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1084,12 +1112,51 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1097,20 +1164,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1126,30 +1184,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1176,9 +1210,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1488,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="5" ySplit="7" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
@@ -1511,102 +1542,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.75">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="58"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="42"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="54"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="54"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="46"/>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="54"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="46"/>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="54"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="46"/>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="54"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="46"/>
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="54"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="46"/>
     </row>
     <row r="8" spans="1:10" ht="45">
       <c r="A8" s="3" t="s">
@@ -1644,16 +1675,16 @@
       <c r="A9" s="4">
         <v>1</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="54" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="14" t="s">
@@ -1676,10 +1707,10 @@
       <c r="A10" s="4">
         <v>2</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="44"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="14" t="s">
         <v>34</v>
       </c>
@@ -1700,14 +1731,14 @@
       <c r="A11" s="4">
         <v>3</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39" t="s">
+      <c r="B11" s="47"/>
+      <c r="C11" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="54" t="s">
         <v>27</v>
       </c>
       <c r="F11" s="14" t="s">
@@ -1730,10 +1761,10 @@
       <c r="A12" s="4">
         <v>4</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="44"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="14" t="s">
         <v>34</v>
       </c>
@@ -1754,14 +1785,14 @@
       <c r="A13" s="4">
         <v>5</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39" t="s">
+      <c r="B13" s="47"/>
+      <c r="C13" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="54" t="s">
         <v>28</v>
       </c>
       <c r="F13" s="14" t="s">
@@ -1784,10 +1815,10 @@
       <c r="A14" s="4">
         <v>6</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="44"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="55"/>
       <c r="F14" s="14" t="s">
         <v>34</v>
       </c>
@@ -1808,16 +1839,16 @@
       <c r="A15" s="4">
         <v>7</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="54" t="s">
         <v>44</v>
       </c>
       <c r="F15" s="14" t="s">
@@ -1840,10 +1871,10 @@
       <c r="A16" s="4">
         <v>8</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="44"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="55"/>
       <c r="F16" s="14"/>
       <c r="G16" s="5" t="s">
         <v>35</v>
@@ -1862,14 +1893,14 @@
       <c r="A17" s="4">
         <v>9</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39" t="s">
+      <c r="B17" s="47"/>
+      <c r="C17" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="54" t="s">
         <v>45</v>
       </c>
       <c r="F17" s="14" t="s">
@@ -1892,10 +1923,10 @@
       <c r="A18" s="4">
         <v>10</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="44"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="55"/>
       <c r="F18" s="14"/>
       <c r="G18" s="9" t="s">
         <v>36</v>
@@ -1914,14 +1945,14 @@
       <c r="A19" s="4">
         <v>11</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39" t="s">
+      <c r="B19" s="47"/>
+      <c r="C19" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="54" t="s">
         <v>46</v>
       </c>
       <c r="F19" s="14" t="s">
@@ -1944,10 +1975,10 @@
       <c r="A20" s="4">
         <v>12</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="44"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="55"/>
       <c r="F20" s="14" t="s">
         <v>51</v>
       </c>
@@ -1968,14 +1999,14 @@
       <c r="A21" s="4">
         <v>7</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="43"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="54"/>
       <c r="F21" s="14"/>
       <c r="G21" s="5"/>
       <c r="H21" s="6"/>
@@ -1990,10 +2021,10 @@
       <c r="A22" s="4">
         <v>8</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="44"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="55"/>
       <c r="F22" s="14"/>
       <c r="G22" s="5"/>
       <c r="H22" s="6"/>
@@ -2008,12 +2039,12 @@
       <c r="A23" s="4">
         <v>9</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="39" t="s">
+      <c r="B23" s="57"/>
+      <c r="C23" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="43"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="54"/>
       <c r="F23" s="14"/>
       <c r="G23" s="5"/>
       <c r="H23" s="6"/>
@@ -2028,10 +2059,10 @@
       <c r="A24" s="4">
         <v>10</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="44"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="55"/>
       <c r="F24" s="14"/>
       <c r="G24" s="9"/>
       <c r="H24" s="10"/>
@@ -2046,12 +2077,12 @@
       <c r="A25" s="4">
         <v>11</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="39" t="s">
+      <c r="B25" s="57"/>
+      <c r="C25" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="45"/>
-      <c r="E25" s="43"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="54"/>
       <c r="F25" s="14"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -2066,10 +2097,10 @@
       <c r="A26" s="4">
         <v>12</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="44"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="55"/>
       <c r="F26" s="14"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -2084,12 +2115,12 @@
       <c r="A27" s="4">
         <v>11</v>
       </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="37" t="s">
+      <c r="B27" s="57"/>
+      <c r="C27" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="45"/>
-      <c r="E27" s="49"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="59"/>
       <c r="F27" s="15"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
@@ -2104,10 +2135,10 @@
       <c r="A28" s="4">
         <v>12</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="49"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="59"/>
       <c r="F28" s="15"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
@@ -2122,12 +2153,12 @@
       <c r="A29" s="4">
         <v>11</v>
       </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="37" t="s">
+      <c r="B29" s="57"/>
+      <c r="C29" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
       <c r="F29" s="15"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -2142,10 +2173,10 @@
       <c r="A30" s="4">
         <v>12</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
       <c r="F30" s="15"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
@@ -2160,10 +2191,10 @@
       <c r="A31" s="4">
         <v>11</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
       <c r="F31" s="15"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
@@ -2178,10 +2209,10 @@
       <c r="A32" s="4">
         <v>12</v>
       </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
       <c r="F32" s="15"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
@@ -2196,10 +2227,10 @@
       <c r="A33" s="4">
         <v>11</v>
       </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
       <c r="F33" s="15"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -2214,10 +2245,10 @@
       <c r="A34" s="4">
         <v>12</v>
       </c>
-      <c r="B34" s="47"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
       <c r="F34" s="15"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
@@ -2232,10 +2263,10 @@
       <c r="A35" s="4">
         <v>11</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
       <c r="F35" s="15"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
@@ -2250,10 +2281,10 @@
       <c r="A36" s="4">
         <v>12</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
       <c r="F36" s="15"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
@@ -2268,10 +2299,10 @@
       <c r="A37" s="4">
         <v>11</v>
       </c>
-      <c r="B37" s="47"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
       <c r="F37" s="15"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
@@ -2286,10 +2317,10 @@
       <c r="A38" s="4">
         <v>12</v>
       </c>
-      <c r="B38" s="47"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
       <c r="F38" s="15"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
@@ -2304,10 +2335,10 @@
       <c r="A39" s="4">
         <v>11</v>
       </c>
-      <c r="B39" s="47"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
       <c r="F39" s="15"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
@@ -2322,10 +2353,10 @@
       <c r="A40" s="4">
         <v>12</v>
       </c>
-      <c r="B40" s="47"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
       <c r="F40" s="15"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
@@ -2340,10 +2371,10 @@
       <c r="A41" s="4">
         <v>11</v>
       </c>
-      <c r="B41" s="47"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
       <c r="F41" s="15"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
@@ -2358,10 +2389,10 @@
       <c r="A42" s="4">
         <v>12</v>
       </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
       <c r="F42" s="15"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
@@ -2376,10 +2407,10 @@
       <c r="A43" s="4">
         <v>11</v>
       </c>
-      <c r="B43" s="47"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
       <c r="F43" s="15"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -2394,10 +2425,10 @@
       <c r="A44" s="4">
         <v>12</v>
       </c>
-      <c r="B44" s="47"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
       <c r="F44" s="15"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
@@ -2412,10 +2443,10 @@
       <c r="A45" s="4">
         <v>11</v>
       </c>
-      <c r="B45" s="47"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
       <c r="F45" s="15"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
@@ -2430,10 +2461,10 @@
       <c r="A46" s="4">
         <v>12</v>
       </c>
-      <c r="B46" s="47"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
       <c r="F46" s="15"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
@@ -2448,10 +2479,10 @@
       <c r="A47" s="4">
         <v>11</v>
       </c>
-      <c r="B47" s="47"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
       <c r="F47" s="15"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
@@ -2466,10 +2497,10 @@
       <c r="A48" s="4">
         <v>12</v>
       </c>
-      <c r="B48" s="47"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
       <c r="F48" s="15"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
@@ -2484,10 +2515,10 @@
       <c r="A49" s="4">
         <v>11</v>
       </c>
-      <c r="B49" s="47"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
       <c r="F49" s="15"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
@@ -2502,10 +2533,10 @@
       <c r="A50" s="4">
         <v>12</v>
       </c>
-      <c r="B50" s="47"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
       <c r="F50" s="15"/>
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
@@ -2520,10 +2551,10 @@
       <c r="A51" s="4">
         <v>11</v>
       </c>
-      <c r="B51" s="47"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
       <c r="F51" s="15"/>
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
@@ -2538,10 +2569,10 @@
       <c r="A52" s="4">
         <v>12</v>
       </c>
-      <c r="B52" s="47"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
       <c r="F52" s="15"/>
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
@@ -2556,10 +2587,10 @@
       <c r="A53" s="4">
         <v>11</v>
       </c>
-      <c r="B53" s="47"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
       <c r="F53" s="15"/>
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
@@ -2574,10 +2605,10 @@
       <c r="A54" s="4">
         <v>12</v>
       </c>
-      <c r="B54" s="47"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
       <c r="F54" s="15"/>
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
@@ -2592,10 +2623,10 @@
       <c r="A55" s="4">
         <v>11</v>
       </c>
-      <c r="B55" s="47"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
       <c r="F55" s="15"/>
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
@@ -2610,10 +2641,10 @@
       <c r="A56" s="4">
         <v>12</v>
       </c>
-      <c r="B56" s="47"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="51"/>
       <c r="F56" s="15"/>
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
@@ -2628,10 +2659,10 @@
       <c r="A57" s="4">
         <v>11</v>
       </c>
-      <c r="B57" s="47"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
       <c r="F57" s="15"/>
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
@@ -2646,10 +2677,10 @@
       <c r="A58" s="4">
         <v>12</v>
       </c>
-      <c r="B58" s="47"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
       <c r="F58" s="15"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
@@ -2664,10 +2695,10 @@
       <c r="A59" s="4">
         <v>11</v>
       </c>
-      <c r="B59" s="47"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
       <c r="F59" s="15"/>
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
@@ -2682,10 +2713,10 @@
       <c r="A60" s="4">
         <v>12</v>
       </c>
-      <c r="B60" s="47"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
       <c r="F60" s="15"/>
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
@@ -2700,10 +2731,10 @@
       <c r="A61" s="4">
         <v>11</v>
       </c>
-      <c r="B61" s="47"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
       <c r="F61" s="15"/>
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
@@ -2718,10 +2749,10 @@
       <c r="A62" s="4">
         <v>12</v>
       </c>
-      <c r="B62" s="47"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
       <c r="F62" s="15"/>
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
@@ -2736,10 +2767,10 @@
       <c r="A63" s="4">
         <v>11</v>
       </c>
-      <c r="B63" s="47"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
       <c r="F63" s="15"/>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
@@ -2754,10 +2785,10 @@
       <c r="A64" s="4">
         <v>12</v>
       </c>
-      <c r="B64" s="47"/>
-      <c r="C64" s="37"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37"/>
+      <c r="B64" s="57"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
       <c r="F64" s="15"/>
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
@@ -2772,10 +2803,10 @@
       <c r="A65" s="4">
         <v>11</v>
       </c>
-      <c r="B65" s="47"/>
-      <c r="C65" s="37"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
+      <c r="B65" s="57"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
       <c r="F65" s="15"/>
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
@@ -2790,10 +2821,10 @@
       <c r="A66" s="4">
         <v>12</v>
       </c>
-      <c r="B66" s="47"/>
-      <c r="C66" s="37"/>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="51"/>
       <c r="F66" s="15"/>
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
@@ -2808,10 +2839,10 @@
       <c r="A67" s="4">
         <v>11</v>
       </c>
-      <c r="B67" s="47"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="51"/>
       <c r="F67" s="15"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
@@ -2826,10 +2857,10 @@
       <c r="A68" s="4">
         <v>12</v>
       </c>
-      <c r="B68" s="48"/>
-      <c r="C68" s="37"/>
-      <c r="D68" s="37"/>
-      <c r="E68" s="37"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="51"/>
+      <c r="D68" s="51"/>
+      <c r="E68" s="51"/>
       <c r="F68" s="15"/>
       <c r="G68" s="11"/>
       <c r="H68" s="11"/>
@@ -2842,22 +2873,74 @@
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
@@ -2874,74 +2957,22 @@
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="D39:D40"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
@@ -2975,102 +3006,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="67"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="64"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="64"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="64"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="64"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="62"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="64"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="64"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="16" t="s">
@@ -3108,7 +3139,7 @@
       <c r="A9" s="17">
         <v>1</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="65" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="35" t="s">
@@ -3140,7 +3171,7 @@
       <c r="A10" s="17">
         <v>3</v>
       </c>
-      <c r="B10" s="63"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="28" t="s">
         <v>22</v>
       </c>
@@ -3170,7 +3201,7 @@
       <c r="A11" s="17">
         <v>5</v>
       </c>
-      <c r="B11" s="63"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="28" t="s">
         <v>23</v>
       </c>
@@ -3200,7 +3231,7 @@
       <c r="A12" s="17">
         <v>10</v>
       </c>
-      <c r="B12" s="63"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="28" t="s">
         <v>93</v>
       </c>
@@ -3230,7 +3261,7 @@
       <c r="A13" s="17">
         <v>11</v>
       </c>
-      <c r="B13" s="63"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="28" t="s">
         <v>94</v>
       </c>
@@ -3260,7 +3291,7 @@
       <c r="A14" s="17">
         <v>11</v>
       </c>
-      <c r="B14" s="63"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="28" t="s">
         <v>95</v>
       </c>
@@ -3290,7 +3321,7 @@
       <c r="A15" s="17">
         <v>11</v>
       </c>
-      <c r="B15" s="63"/>
+      <c r="B15" s="65"/>
       <c r="C15" s="28" t="s">
         <v>96</v>
       </c>
@@ -3320,7 +3351,7 @@
       <c r="A16" s="17">
         <v>11</v>
       </c>
-      <c r="B16" s="63"/>
+      <c r="B16" s="65"/>
       <c r="C16" s="28" t="s">
         <v>97</v>
       </c>
@@ -3350,7 +3381,7 @@
       <c r="A17" s="17">
         <v>11</v>
       </c>
-      <c r="B17" s="63"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="28" t="s">
         <v>98</v>
       </c>
@@ -3380,7 +3411,7 @@
       <c r="A18" s="17">
         <v>11</v>
       </c>
-      <c r="B18" s="63"/>
+      <c r="B18" s="65"/>
       <c r="C18" s="28" t="s">
         <v>99</v>
       </c>
@@ -3449,102 +3480,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="67"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="64"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="64"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="64"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="64"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="62"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="64"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="64"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="16" t="s">
@@ -3582,7 +3613,7 @@
       <c r="A9" s="17">
         <v>1</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="65" t="s">
         <v>61</v>
       </c>
       <c r="C9" s="28" t="s">
@@ -3614,7 +3645,7 @@
       <c r="A10" s="17">
         <v>3</v>
       </c>
-      <c r="B10" s="63"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="28" t="s">
         <v>62</v>
       </c>
@@ -3644,7 +3675,7 @@
       <c r="A11" s="17">
         <v>5</v>
       </c>
-      <c r="B11" s="63"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="28" t="s">
         <v>63</v>
       </c>
@@ -3674,7 +3705,7 @@
       <c r="A12" s="17">
         <v>10</v>
       </c>
-      <c r="B12" s="63"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="28" t="s">
         <v>64</v>
       </c>
@@ -3704,7 +3735,7 @@
       <c r="A13" s="17">
         <v>11</v>
       </c>
-      <c r="B13" s="63"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="28" t="s">
         <v>65</v>
       </c>
@@ -3734,7 +3765,7 @@
       <c r="A14" s="17">
         <v>11</v>
       </c>
-      <c r="B14" s="63"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="28" t="s">
         <v>66</v>
       </c>
@@ -3764,7 +3795,7 @@
       <c r="A15" s="17">
         <v>11</v>
       </c>
-      <c r="B15" s="63"/>
+      <c r="B15" s="65"/>
       <c r="C15" s="28" t="s">
         <v>67</v>
       </c>
@@ -3845,104 +3876,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="67"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="64"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="64"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="64"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="64"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="62"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="64"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="62"/>
-    </row>
-    <row r="8" spans="1:10" ht="27">
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="64"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="16" t="s">
         <v>3</v>
       </c>
@@ -3974,11 +4005,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="67.5">
+    <row r="9" spans="1:10" ht="54">
       <c r="A9" s="17">
         <v>1</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="65" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="35" t="s">
@@ -4006,11 +4037,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="67.5">
+    <row r="10" spans="1:10" ht="54">
       <c r="A10" s="17">
         <v>3</v>
       </c>
-      <c r="B10" s="63"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="28" t="s">
         <v>22</v>
       </c>
@@ -4036,11 +4067,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="67.5">
+    <row r="11" spans="1:10" ht="54">
       <c r="A11" s="17">
         <v>5</v>
       </c>
-      <c r="B11" s="63"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="28" t="s">
         <v>23</v>
       </c>
@@ -4066,11 +4097,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="135">
+    <row r="12" spans="1:10" ht="67.5">
       <c r="A12" s="17">
         <v>10</v>
       </c>
-      <c r="B12" s="63"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="28" t="s">
         <v>93</v>
       </c>
@@ -4096,11 +4127,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="108">
+    <row r="13" spans="1:10" ht="67.5">
       <c r="A13" s="17">
         <v>11</v>
       </c>
-      <c r="B13" s="63"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="28" t="s">
         <v>94</v>
       </c>
@@ -4126,11 +4157,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="189">
+    <row r="14" spans="1:10" ht="54">
       <c r="A14" s="17">
         <v>11</v>
       </c>
-      <c r="B14" s="63"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="28" t="s">
         <v>95</v>
       </c>
@@ -4156,11 +4187,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="108">
+    <row r="15" spans="1:10" ht="67.5">
       <c r="A15" s="17">
         <v>11</v>
       </c>
-      <c r="B15" s="63"/>
+      <c r="B15" s="65"/>
       <c r="C15" s="28" t="s">
         <v>96</v>
       </c>
@@ -4186,11 +4217,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="94.5">
+    <row r="16" spans="1:10" ht="67.5">
       <c r="A16" s="17">
         <v>11</v>
       </c>
-      <c r="B16" s="63"/>
+      <c r="B16" s="65"/>
       <c r="C16" s="28" t="s">
         <v>97</v>
       </c>
@@ -4216,11 +4247,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="67.5">
+    <row r="17" spans="1:10" ht="54">
       <c r="A17" s="17">
         <v>11</v>
       </c>
-      <c r="B17" s="63"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="28" t="s">
         <v>98</v>
       </c>
@@ -4246,11 +4277,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="94.5">
+    <row r="18" spans="1:10" ht="67.5">
       <c r="A18" s="17">
         <v>11</v>
       </c>
-      <c r="B18" s="63"/>
+      <c r="B18" s="65"/>
       <c r="C18" s="28" t="s">
         <v>99</v>
       </c>
@@ -4299,13 +4330,203 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
+    <col min="5" max="5" width="22.375" customWidth="1"/>
+    <col min="6" max="6" width="34.875" customWidth="1"/>
+    <col min="7" max="7" width="14.75" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="9" max="9" width="13.375" customWidth="1"/>
+    <col min="10" max="10" width="24.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15">
+      <c r="A1" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="69"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="64"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="64"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="64"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="64"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="64"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="64"/>
+    </row>
+    <row r="8" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="148.5">
+      <c r="A9" s="17">
+        <v>1</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J6"/>
+  </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9">
+      <formula1>"通过,未通过,未测试"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4314,8 +4535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4332,102 +4553,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="67"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="64"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="64"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="64"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="64"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="62"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="64"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="64"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="16" t="s">
@@ -4465,7 +4686,7 @@
       <c r="A9" s="17">
         <v>1</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="65" t="s">
         <v>135</v>
       </c>
       <c r="C9" s="28" t="s">
@@ -4480,10 +4701,10 @@
       <c r="F9" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="G9" s="68" t="s">
+      <c r="G9" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="H9" s="68" t="s">
+      <c r="H9" s="38" t="s">
         <v>140</v>
       </c>
       <c r="I9" s="21" t="s">
@@ -4497,7 +4718,7 @@
       <c r="A10" s="17">
         <v>3</v>
       </c>
-      <c r="B10" s="63"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="28" t="s">
         <v>134</v>
       </c>
@@ -4510,10 +4731,10 @@
       <c r="F10" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="G10" s="68" t="s">
+      <c r="G10" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="H10" s="68" t="s">
+      <c r="H10" s="38" t="s">
         <v>141</v>
       </c>
       <c r="I10" s="21" t="s">
